--- a/data/rom_yoke.xlsx
+++ b/data/rom_yoke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xli239/Dropbox/My Mac (pbs-jc-lap5.local)/Desktop/cyoa/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xian/Dropbox/proj_CYOA/beh_study/z_paper/1_use/github_share/cyoa/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E11CBFB-1958-EF4F-BD77-0B46413ABC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50482B3-16FD-8340-B7CA-DBD6571699EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40360" yWindow="8140" windowWidth="28800" windowHeight="16420" xr2:uid="{343C9A83-F4D1-6B4B-A269-08CD445AB120}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{343C9A83-F4D1-6B4B-A269-08CD445AB120}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="376">
   <si>
     <t>sub</t>
   </si>
@@ -1152,6 +1152,15 @@
   </si>
   <si>
     <t>0,1,1,0,0,0,0,1,1,1,1,1,0,1,1,0,1,0,0,0,0,1,0,0,1,0,1,1,0,0,1,0,1,0,0,0,1,1,0,1,0,0,0,1,1,0,1,0,0,0,1,0,1,1,0,0,1,0,0,1,0,0,0,0,0,1,0,0,1,1,1,0,1,1,0,1,0,0,1,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>avg_sent_readtime</t>
+  </si>
+  <si>
+    <t>sum_readtime</t>
+  </si>
+  <si>
+    <t>trans_score</t>
   </si>
 </sst>
 </file>
@@ -1503,10 +1512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1DC3C1-B995-3B40-8EDE-15F3C4FDEBF0}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+      <selection activeCell="L1" sqref="L1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1514,7 +1523,7 @@
     <col min="9" max="9" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1548,8 +1557,17 @@
       <c r="K1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>373</v>
+      </c>
+      <c r="M1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1583,8 +1601,17 @@
       <c r="K2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>2.06</v>
+      </c>
+      <c r="M2">
+        <v>14.041499999999999</v>
+      </c>
+      <c r="N2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1618,8 +1645,17 @@
       <c r="K3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>5.32</v>
+      </c>
+      <c r="M3">
+        <v>33.187666666666672</v>
+      </c>
+      <c r="N3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1653,8 +1689,17 @@
       <c r="K4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>3.61</v>
+      </c>
+      <c r="M4">
+        <v>23.986333333333331</v>
+      </c>
+      <c r="N4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1688,8 +1733,17 @@
       <c r="K5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="M5">
+        <v>28.631166666666669</v>
+      </c>
+      <c r="N5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1723,8 +1777,17 @@
       <c r="K6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>5.16</v>
+      </c>
+      <c r="M6">
+        <v>34.338166666666673</v>
+      </c>
+      <c r="N6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1758,8 +1821,17 @@
       <c r="K7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>3.16</v>
+      </c>
+      <c r="M7">
+        <v>21.486999999999998</v>
+      </c>
+      <c r="N7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1793,8 +1865,17 @@
       <c r="K8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="M8">
+        <v>15.17883333333333</v>
+      </c>
+      <c r="N8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1828,8 +1909,17 @@
       <c r="K9" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>4.95</v>
+      </c>
+      <c r="M9">
+        <v>32.412833333333332</v>
+      </c>
+      <c r="N9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1863,8 +1953,17 @@
       <c r="K10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>4.34</v>
+      </c>
+      <c r="M10">
+        <v>28.865833333333331</v>
+      </c>
+      <c r="N10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1898,8 +1997,17 @@
       <c r="K11" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="M11">
+        <v>29.527333333333331</v>
+      </c>
+      <c r="N11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +2041,17 @@
       <c r="K12" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="M12">
+        <v>28.982500000000002</v>
+      </c>
+      <c r="N12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1968,8 +2085,17 @@
       <c r="K13" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="M13">
+        <v>65.722499999999997</v>
+      </c>
+      <c r="N13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2003,8 +2129,17 @@
       <c r="K14" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>3.9</v>
+      </c>
+      <c r="M14">
+        <v>24.390499999999999</v>
+      </c>
+      <c r="N14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2038,8 +2173,17 @@
       <c r="K15" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>4.91</v>
+      </c>
+      <c r="M15">
+        <v>31.151499999999999</v>
+      </c>
+      <c r="N15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2073,8 +2217,17 @@
       <c r="K16" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>2.17</v>
+      </c>
+      <c r="M16">
+        <v>14.771000000000001</v>
+      </c>
+      <c r="N16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2108,8 +2261,17 @@
       <c r="K17" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>7.3</v>
+      </c>
+      <c r="M17">
+        <v>46.359833333333327</v>
+      </c>
+      <c r="N17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2143,8 +2305,17 @@
       <c r="K18" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>4.16</v>
+      </c>
+      <c r="M18">
+        <v>27.69233333333333</v>
+      </c>
+      <c r="N18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2178,8 +2349,17 @@
       <c r="K19" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>3.4</v>
+      </c>
+      <c r="M19">
+        <v>23.107833333333339</v>
+      </c>
+      <c r="N19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2213,8 +2393,17 @@
       <c r="K20" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>7.14</v>
+      </c>
+      <c r="M20">
+        <v>45.356999999999999</v>
+      </c>
+      <c r="N20">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2248,8 +2437,17 @@
       <c r="K21" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>3.52</v>
+      </c>
+      <c r="M21">
+        <v>22.160499999999999</v>
+      </c>
+      <c r="N21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2283,8 +2481,17 @@
       <c r="K22" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>5.76</v>
+      </c>
+      <c r="M22">
+        <v>38.473166666666657</v>
+      </c>
+      <c r="N22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2318,8 +2525,17 @@
       <c r="K23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>3.53</v>
+      </c>
+      <c r="M23">
+        <v>22.076166666666669</v>
+      </c>
+      <c r="N23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2353,8 +2569,17 @@
       <c r="K24" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>5.45</v>
+      </c>
+      <c r="M24">
+        <v>34.080166666666663</v>
+      </c>
+      <c r="N24">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -2388,8 +2613,17 @@
       <c r="K25" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>3.52</v>
+      </c>
+      <c r="M25">
+        <v>22.15</v>
+      </c>
+      <c r="N25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -2423,8 +2657,17 @@
       <c r="K26" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>3.57</v>
+      </c>
+      <c r="M26">
+        <v>23.403166666666671</v>
+      </c>
+      <c r="N26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -2458,8 +2701,17 @@
       <c r="K27" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>3.67</v>
+      </c>
+      <c r="M27">
+        <v>24.4175</v>
+      </c>
+      <c r="N27">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -2493,8 +2745,17 @@
       <c r="K28" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>3.43</v>
+      </c>
+      <c r="M28">
+        <v>21.356833333333331</v>
+      </c>
+      <c r="N28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -2528,8 +2789,17 @@
       <c r="K29" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="M29">
+        <v>26.861999999999998</v>
+      </c>
+      <c r="N29">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -2563,8 +2833,17 @@
       <c r="K30" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>4.84</v>
+      </c>
+      <c r="M30">
+        <v>31.866499999999998</v>
+      </c>
+      <c r="N30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -2598,8 +2877,17 @@
       <c r="K31" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <v>3.1</v>
+      </c>
+      <c r="M31">
+        <v>19.5885</v>
+      </c>
+      <c r="N31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -2633,8 +2921,17 @@
       <c r="K32" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>2.96</v>
+      </c>
+      <c r="M32">
+        <v>19.759666666666661</v>
+      </c>
+      <c r="N32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -2668,8 +2965,17 @@
       <c r="K33" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>3.36</v>
+      </c>
+      <c r="M33">
+        <v>20.982833333333339</v>
+      </c>
+      <c r="N33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -2703,8 +3009,17 @@
       <c r="K34" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>6.89</v>
+      </c>
+      <c r="M34">
+        <v>44.903666666666673</v>
+      </c>
+      <c r="N34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -2738,8 +3053,17 @@
       <c r="K35" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M35">
+        <v>58.094666666666662</v>
+      </c>
+      <c r="N35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -2773,8 +3097,17 @@
       <c r="K36" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>3.34</v>
+      </c>
+      <c r="M36">
+        <v>22.274666666666668</v>
+      </c>
+      <c r="N36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -2808,8 +3141,17 @@
       <c r="K37" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>3.77</v>
+      </c>
+      <c r="M37">
+        <v>23.541</v>
+      </c>
+      <c r="N37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -2843,8 +3185,17 @@
       <c r="K38" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <v>5.04</v>
+      </c>
+      <c r="M38">
+        <v>33.148166666666668</v>
+      </c>
+      <c r="N38">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -2878,8 +3229,17 @@
       <c r="K39" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="M39">
+        <v>28.50333333333333</v>
+      </c>
+      <c r="N39">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -2913,8 +3273,17 @@
       <c r="K40" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>5.32</v>
+      </c>
+      <c r="M40">
+        <v>33.247999999999998</v>
+      </c>
+      <c r="N40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -2948,8 +3317,17 @@
       <c r="K41" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>2.41</v>
+      </c>
+      <c r="M41">
+        <v>15.92483333333333</v>
+      </c>
+      <c r="N41">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -2983,8 +3361,17 @@
       <c r="K42" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>7.94</v>
+      </c>
+      <c r="M42">
+        <v>50.128833333333333</v>
+      </c>
+      <c r="N42">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -3018,8 +3405,17 @@
       <c r="K43" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <v>4.91</v>
+      </c>
+      <c r="M43">
+        <v>32.715666666666671</v>
+      </c>
+      <c r="N43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -3053,8 +3449,17 @@
       <c r="K44" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>5.5</v>
+      </c>
+      <c r="M44">
+        <v>35.866999999999997</v>
+      </c>
+      <c r="N44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -3088,8 +3493,17 @@
       <c r="K45" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <v>5.48</v>
+      </c>
+      <c r="M45">
+        <v>36.985833333333332</v>
+      </c>
+      <c r="N45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -3123,8 +3537,17 @@
       <c r="K46" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <v>15.66</v>
+      </c>
+      <c r="M46">
+        <v>102.04016666666671</v>
+      </c>
+      <c r="N46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -3158,8 +3581,17 @@
       <c r="K47" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <v>5.73</v>
+      </c>
+      <c r="M47">
+        <v>35.798666666666669</v>
+      </c>
+      <c r="N47">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -3193,8 +3625,17 @@
       <c r="K48" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>7.22</v>
+      </c>
+      <c r="M48">
+        <v>46.312666666666672</v>
+      </c>
+      <c r="N48">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -3228,8 +3669,17 @@
       <c r="K49" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <v>6.72</v>
+      </c>
+      <c r="M49">
+        <v>41.976166666666671</v>
+      </c>
+      <c r="N49">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>75</v>
       </c>
@@ -3263,8 +3713,17 @@
       <c r="K50" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <v>4.43</v>
+      </c>
+      <c r="M50">
+        <v>29.892499999999998</v>
+      </c>
+      <c r="N50">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -3298,8 +3757,17 @@
       <c r="K51" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>2.98</v>
+      </c>
+      <c r="M51">
+        <v>19.42883333333333</v>
+      </c>
+      <c r="N51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -3333,8 +3801,17 @@
       <c r="K52" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>6.07</v>
+      </c>
+      <c r="M52">
+        <v>39.548333333333332</v>
+      </c>
+      <c r="N52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -3368,8 +3845,17 @@
       <c r="K53" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53">
+        <v>3.79</v>
+      </c>
+      <c r="M53">
+        <v>25.260833333333331</v>
+      </c>
+      <c r="N53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -3402,6 +3888,15 @@
       </c>
       <c r="K54" t="s">
         <v>372</v>
+      </c>
+      <c r="L54">
+        <v>8.57</v>
+      </c>
+      <c r="M54">
+        <v>55.020333333333333</v>
+      </c>
+      <c r="N54">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
